--- a/deuChatbot/research_result/results/bleu_score/bleu_version_1(2500_0).xlsx
+++ b/deuChatbot/research_result/results/bleu_score/bleu_version_1(2500_0).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6107,61 +6107,3429 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 가지 종목 중 하나를 선택하여 응시하게 됩니다. 각 종목별로 다음과 같은 특징이 있습니다:
+1. **시각디자인**:
+   - **종목별 배점**: 700점 (70%)
+   - **준비물**: 개인 준비가 필요하며, 구체적인 요구사항은 학교에서 공지합니다.
+   - **실기주제**: 시각적 표현과 디자인 아이디어를 제시하는 주제가 주어집니다.
+   - **화지크기**: 일반적으로 A3 크기의 화면을 사용하게 됩니다.
+   - **시간**: 정확한 시간은 학교에서 공지되지만, 대략적인 시간은 2-4시간 정도입니다.
+2. **산업디자인**:
+   - **종목별 배점**: 700점 (70%)
+   - **준비물**: 개인 준비가 필요하며, 구체적인 요구사항은 학교에서 공지합니다.
+   - **실기주제**: 제품 디자인이나 시스템 디자인 등에 대한 아이디어 제시 주제가 주어집니다.
+   - **화지크기**: 일반적으로 A3 크기의 화면을 사용하게 됩니다.
+   - **시간**: 정확한 시간은 학교에서 공지되지만, 대략적인 시간은 2-4시간 정도입니다.
+3. **공예디자인**:
+   - **종목별 배점**: 700점 (70%)
+   - **준비물**: 개인 준비가 필요하며, 구체적인 요구사항은 학교에서 공지합니다.
+   - **실기주제**: 다양한 재료와 기법을 활용한 공예 작품 제작 주제가 주어집니다.
+   - **화지크기**: 일반적으로 A3 크기의 화면을 사용하게 됩니다.
+   - **시간**: 정확한 시간은 학교에서 공지되지만, 대략적인 시간은 2-4시간 정도입니다.
+**준비사항**:
+- 각 종목별로 필요한 준비물과 주제를 미리 파악하고 준비해야 합니다.
+- 실기시험 당일에는 개인 도구와 재료를 지참해야 하며, 학교에서 요구하는 규격을 준수해야 합니다.
+- 시간 관리를 잘하여 모든 과정을 완성할 수 있도록 계획을 세워야 합니다.
+**주의사항**:
+- 학교에서 공지한 준비물과 주제를 반드시 따르세요.
+- 화질 크기는 A3 크기로 일관되게 사용해야 합니다.
+- 시간 관리가 중요하므로, 충분히 준비하고 시간을 계획해두세요.
+이러한 정보를 바탕으로 디자인조형학과의 실기시험에 대비할 수 있습니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.3441347857606744</v>
+        <v>0.261928164519696</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목은 시각디자인, 산업디자인, 공예디자인 중 택1이며, 종목별 배점 비율은 다음과 같습니다:
+- 기초디자인, 사고의 전환 / 700점 (70%)
+준비물:
+- 볼펜
+- 연필
+- 색연필
+- 수채물감 등 표현에 필요한 도구
+실기주제와 화지크기는 다음과 같습니다:
+- 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다.
+- 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+화지크기와 시간은 다음과 같습니다:
+- 켄트지 3절
+- 5시간
+참고로, 각 실기종목 실기 시 운동복 및 운동화를 착용해야 하며, 메디신볼 규격은 남자 3kg, 여자 2kg입니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.2395826815168583</v>
+        <v>0.4881246987457366</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다:
+1. 배드민턴(남):
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남):
+   - 춘계한국고등학교축구연맹전
+   - 추계한국고등학교축구연맹전
+   - 대한축구협회장배전국고등학교축구대회
+   - 문화체육관광부장관기전국고등학교축구대회
+   - 백운기전국고등학교축구대회
+   - 전국고등축구리그(권역별고교축구리그)
+   - 전국고등축구리그왕중왕전
+   - 무학기전국고등학교축구대회
+   - 청룡기전국고등학교축구대회
+   - 백록기전국고등학교축구대회
+   - 금강대기전국고등학교축구대회
+   - 대통령금배전국고등학교축구대회
+   - 금석배전국고등학생축구대회
+   - 부산MBC전국고등학생축구대회
+   - K리그 U18 챔피언십
+   - K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.8520285383138225</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기 시험에서는 다음과 같은 주제들이 사용될 수 있습니다:
+1. 주제 A (예시): 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+2. 주제 B (예시): 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+참고로, 실제 시험에서는 당일에 주제가 추첨되어 결정되며, 제공된 사물과 이미지 이외의 형상은 표현하지 않아야 합니다. 또한 제공된 사물의 색상은 변경하지 말아야 합니다.
+필요한 도구는 볼펜, 연필, 색연필, 수채물감 등이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.4684642702817009</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024학년도 동안, 학생부교과 전형에서는 출결 점수가 반영되지 않습니다.
+이를 확인하기 위해 제공된 "전형요소 반영비율" 표에서 학생부교과 전형의 각 전형명을 살펴보았습니다. 
+- 실기/실적 위주 전형 (나군)에서는 출결 점수가 0%로 반영되지 않습니다.
+- 학생부종합 평가에서도 출결 점수가 포함되지 않은 것으로 보입니다.
+따라서, 현재의 전형 요소 중에서 학생부교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.002225431317104818</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다.
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다. 해당 표에 따르면:
+인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 : 17명</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.1151974738917307</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 /
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 얻었습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.2577585946793442</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>22명입니다.
+의료보건생활대학 간호학과는 나군 일반학생 전형으로 22명을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.5399459683396217</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>以下是根据韩语原文整理的英语等级对应的分数表：
+| 등급 | 점수 |
+|------|------|
+| 1    | 139  |
+| 2    | 131  |
+| 3    | 123  |
+| 4    | 115  |
+| 5    | 107  |
+| 6    | 99   |
+| 7    | 91   |
+| 8    | 83   |
+| 9    | 75   |
+这个表格显示了韩国大学入学考试（수능）中英语等级与对应分数之间的关系。</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.2182017684465913</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 출신 학생은 나군 학생부교과(농어촌학생전형)로 지원할 수 없습니다. 
+[표 추가내용]에 따르면:
+"예술고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다."
+따라서 예술고 학생은 나군 학생부교과(농어촌학생전형)로 지원할 수 없으며, 다른 전형을 통해 지원해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.4964473784409865</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>4등급의 여자 제자리 멀리뛰기 기록은 253~256cm이며, 이에 대한 배점은 112.0입니다.
+이 정보는 다음과 같은 표에서 얻었습니다:
+```
+4 / { 277~280 /  223~226 /  208.0 / } / { 10.0~10.4 /  8.0~8.4 /  184.1 / } / { 14.51~14.65 /  15.65∼15.79 /  184.1 / } /
+```
+여기서 4등급의 여자 제자리 멀리뛰기는 223~226cm 범위에 속하며, 해당 배점은 208.0입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.04029459460001909</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>12%입니다.
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 표에서 확인할 수 있습니다:
+[표 내용]
+```
+경기지도학과 / { 18% /  12% /  70% / }
+```
+여기서 12%는 출결상황의 반영 비율을 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.006188720866566032</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>4명을 모집합니다.
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다. 해당 표에 따르면 물리치료학과는 다군 수능(일반학생전형)으로 모집되며, 모집 인원이 4명입니다.
+하지만 물리치료학과가 가군에서도 모집되는 것을 확인하기 위해 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표를 참조해 보았습니다. 해당 표에서는 물리치료학과가 포함되어 있지 않습니다.
+따라서 동의대학교 2024학년도 가군에서 물리치료학과는 모집되지 않는 것으로 보입니다. 만약 다른 정보가 있다면 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.0004981492069113542</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 실시됩니다.
+이 정보는 "전형일정" 표에서 확인할 수 있습니다:
+```
+&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과 / 2024. 01. 17.(수) /
+```</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.0008502777867294234</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 정확한 수능 최저기준 정보가 제공된 표에서 확인할 수 없습니다. 주어진 데이터는 대부분 전형 요소와 모집 단위, 수능 반영 비율 등에 대한 내용을 포함하고 있으며, 특정 학과의 수능 최저기준은 명시되어 있지 않습니다.
+수능 최저기준에 관한 정보를 얻으려면, 동의대학교 입학처 웹사이트나 공식 안내서를 참조하거나 직접 문의하는 것이 가장 정확할 것입니다. 해당 대학의 입학 홈페이지에서 2024학년도 수시 모집요강을 확인하시거나, 전화로 문의하시는 것을 추천드립니다.
+만약 추가 정보가 필요하다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>1.308162448857837e-09</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과는 다음과 같습니다:
+1. 인문사회과학대학 - 심리학과 (신설)
+2. 상경대학 - 스마트항만물류학과 (신설) 
+3. 상경대학 - 창업투자경영학과 (신설)
+4. 미래융합대학 - 라이프융합학부 (신설 - 스마트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 미래융합대학 - 부동산자산경역학부 (신설 - 부동산투자학, 부동산개발경영학)
+이 외에도 일부 학과의 교직 과정 등이 신설되었지만, 주요 신설 학과는 위와 같습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.3071062584938101</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 정보는 "나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 전형요소 반영비율" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.1980347933513427</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 공과대학, ICT융합공과대학 모집단위에서 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10% 가산점을 부여합니다.
+관련 정보는 다음과 같습니다:
+- [가산점] 표에서 공과대학, ICT융합공과대학 모집단위에 대해 "수학(미적분 or 기하)응시자는 수학 취득 표준점수의 10%를 가산점으로 부여"라고 명시되어 있습니다.
+따라서 수능에서 수학(미적분 또는 기하)을 응시한 공과대학 및 ICT융합공과대학 모집단위 지원자에게는 수학 점수가 10% 추가로 인정됩니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.279146608630189</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 다음과 같이 반영됩니다:
+- 모든 모집단위에 대해 국어(화법과작문 또는 언어와매체), 수학(확률과통계 또는 미적분 또는 기하), 영어, 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 영역 중 각각 25%의 비율로 반영됩니다.
+- 한의예과는 수학(미적분/기하) 응시자에 한해 수학 취득 표준점수의 10% 가산점을 부여합니다.
+- 예술디자인체육대학 모집단위(패션디자인학과 제외)는 국어, 수학, 영어, 탐구 중 상위 3개 영역을 각각 33.33%로 반영합니다.
+따라서 주요 내용 요약:
+1. 모든 모집단위: 
+   - 국어 (25%)
+   - 수학 (25%)
+   - 영어 (25%)
+   - 탐구 (25%)
+2. 한의예과:
+   - 추가 10% 가산점 (수학 미적분/기하 응시자)
+3. 예술디자인체육대학(패션디자인학과 제외):
+   - 상위 3개 영역 중 각각 33.33%
+이러한 방식으로 수능 성적이 학생들의 총점에 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.007754376044747847</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 레저스포츠학과와 태권도학과에서 실시되며, 날짜는 다음과 같습니다:
+- **레저스포츠학과 및 태권도학과** : 2024년 1월 16일(화)
+이 날짜에 대기실 및 입실시간 안내가 있을 예정이며, 자세한 정보는 2024년 1월 12일(금)부터 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.04505124926257632</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과는 다른 전형료 요건을 따릅니다. 
+따라서, 나군 수능(일반학생전형)의 경우 일반 모집단위에 대한 전형료는 35,000원이지만, 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과는 68,000원으로 더 비싸게 부과됩니다.
+따라서, 나군 수능(일반학생전형)에서 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과는 제외된 것이 아니라 다른 전형료를 적용받습니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.05135693288725408</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 수능(일반학생전형)에서는 수능 최저기준이 적용되지 않습니다.
+참조할 수 있는 정보는 다음과 같습니다:
+- [다군 수능(일반학생전형) 전형요소 반영비율] 표에서 "수능최저기준 없음"이라고 명시되어 있습니다.
+  ``` 
+  다군 수능(일반학생전형) / 전 모집단위 / { 100% / } / 수능최저기준 없음
+  ```
+따라서, 다군 수능(일반학생전형)에서는 수능 최저성적을 충족시키지 않아도 지원이 가능하며, 모든 지원자의 수능 점수를 100% 반영하여 평가하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.002182630009511779</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산투자학, 부동산개발경영학
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이 외에도 새로운 학과와 전공이 신설되었으며, 일부 전공은 모집을 중지하였습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.8757096263546141</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수 마감일은 **2024. 01. 06.(토) 18시**까지입니다.
+추가 유의사항:
+- 원서접수 사이트 접속이 마감일 18시 정각에 차단되므로, 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다.
+- 마감 시한까지 원서접수를 완료하지 못한 경우 지원자 본인의 책임으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.04873116597681246</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 주요 전형들은 다음과 같습니다:
+1. **학생부종합(평생학습자전형)**:
+   - 전형요소 반영비율 변경: 서류 70%, 면접 30%
+2. **학생부종합(성인학습자(정원내·외)전형)**:
+   - 전형요소 반영비율 변경: 서류 70%, 면접 30%
+3. **학생부종합(재직자전형)**:
+   - 전형요소 반영비율 변경: 서류 70%, 면접 40%
+이 외에도 일부 모집단위의 경우 교직과정의 개설 여부가 변경될 수 있으며, 공학 표기된 모집단위는 공학교육인증제 운영 학과임을 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.1620966414611094</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이 정보는 "가군 실기/실적(일반학생전형) 전형요소 반영비율" 표에서 확인할 수 있습니다:
+```
+가군 실기/실적(일반학생전형) / 레저스포츠학과, 태권도학과 / { 30% / 70% / }
+```
+따라서, 가군 실기/실적 전형에서는 실기 점수가 총점의 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.01641747524172924</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과인 "라이프융합학부"의 세부 전공은 다음과 같습니다:
+- 스타트업 창업투자학
+- 뷰티 비즈니스학 
+- 라이프 생활문화학
+따라서, 라이프융합학부는 3가지 세부전공으로 구성되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.5599533132824263</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (실기종목: 제자리 멀리뛰기, Z-런)
+2. 태권도학과
+3. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 
+4. 체육학과 (실기종목: 제자리 멀리뛰기, 메디신볼 던지기, Z-런)
+이들 학과는 해당 학과의 입시 과정에서 실기고사를 진행합니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.1088018308620626</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "가군 실기/실적(일반학생전형)"은 다음과 같은 학과에 지원할 수 있습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과는 실기/실적 위주의 전형을 통해 모집하며, 이들 학과에서는 실기 성적이 큰 비중을 차지합니다 (각각 70%의 반영비율).</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.3162617033192787</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학에서 신설되는 라이프융합학부는 다음과 같은 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+这三个专业旨在培养与生活融合相关的创业、美容和生活方式管理等方面的人才。</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.4436425451883235</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？你在询问关于 Dongui University (동의대학교) 的普通学部招生信息。根据提供的表格内容，特教高中（特殊目的高中）的学生是否可以申请 Dongui University 的普通学部需要具体查看各专业的招生要求。
+不过，从给定的信息来看，并没有直接提到特教高中的学生能否申请 Dongui University 的普通学部。通常情况下：
+1. 特殊目的高中包括科学高中、国际高中、外语高中、艺术高中和体育高中。
+2. 一般而言，这些特殊目的高中的毕业生是可以申请大学的普通学部的。
+但是为了确保信息准确无误，请参考 Dongui University 官方网站上的具体招生简章或直接联系学校招生办公室进行确认。他们可以提供最准确的信息并解答任何疑问。如果需要的话，可以访问以下链接获取更多信息：https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.06041078035782041</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 "전형별 모집단위별 모집인원" 표를 참조해야 합니다. 해당 표에서는 각 학과별 정원 내 모집인원이 제시되어 있습니다.
+표에서 가장 높은 정원 내 모집인원을 가진 학과를 확인해보면, "상경대학 경영학과"가 65명을 모집하고 있으며, 이는 다른 학과들보다 훨씬 많은 수치입니다. 따라서 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **상경대학 경영학과**라고 할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.09027391886400492</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你在申请东义大学的学生部教科农村学生类型时，作为特殊目的高中学生是不符合条件的。根据提供的信息，特殊目的高中（如科学高中、国际高中、外语高中、体育高中和艺术高中）的学生不能申请该类型。
+具体来说，在“나군 학생부교과(농어촌학생전형) - 정원외 지원자격”表中提到：
+- 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다。
+这表示位于农村或偏远地区的特殊目的高中（如科学高中、国际高中、外语高中、体育高中和艺术高中）的毕业生不能申请该类型。</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.3030180739897769</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적 정보는 제공된 표에서 직접 확인할 수 없습니다. 그러나, 제공된 표 중에서 소프트웨어공학부와 관련된 데이터를 찾아볼 수 있습니다.
+ICT융합공과대학 / 소프트웨어공학부 / 30 / 146 / 4.87 / 63 / { 330.11 / 9.08 / } / { 3.30 / 0.82 / } / { 4.12 / 0.32 / } / { 450.71 / 10.11 / }
+이 정보에서, 소프트웨어공학부의 합격자 평균 수능 표준변환점수는 330.11입니다.
+따라서, 2024학년도 소프트웨어공학부 합격자의 평균 성적은 **330.11**입니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.07712935528990064</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자 평균 성적은 { 330.11 / 9.08 }입니다.
+이 숫자는 표준 변환 점수 합의 평균 값으로, 표에서 다음과 같이 나와 있습니다:
+```
+ICT융합공과대학 / 소프트웨어공학부 / 30 / 146 / 4.87 / 63 / { 330.11 / 9.08 / } / { 3.30 / 0.82 / } / { 4.12 / 0.32 / } / { 450.71 / 10.11 / } /
+```
+따라서, 소프트웨어공학부 최초합격자의 평균 성적은 표준 변환 점수 합의 평균이 330.11이고, 표준 편차는 9.08입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.07278378764701483</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024학년도 수시모집의 최초합격자는 홈페이지를 통해 실시되며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 반드시 합격 여부를 확인해야 합니다. 정확한 날짜는 아직 공지되지 않았지만, 일반적으로 1월 중순부터 시작될 것으로 예상됩니다. 최종 충원합격자는 2월 중순에서 말까지 발표될 가능성이 있습니다. 자세한 일정은 동의대학교 입학 홈페이지를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.2648115061232182</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2024년 1월 16일(화)에 &lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)의 면접고사가 있습니다. 
+대기실 및 입실 시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+따라서, 면접고사는 2024년 1월 16일(화)에 진행되며, 대기실 및 입실 시간은 1월 12일(금)부터 안내가 제공됩니다.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.105775411444083</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到韩医科（한의예과）的最低学力标准。但是，根据以往的招生政策和一般医学类专业的入学要求，可以推测韩医科可能有以下一些基本要求：
+1. 高中毕业或同等学历：大多数医学院校要求申请者至少具备高中毕业证书。
+2. 相关科目成绩：通常需要一定的理科基础，特别是生物学、化学等科目。
+3. 身体健康状况：部分学校可能会对申请者的身体健康状况有具体要求。
+具体的最低学力标准可能包括：
+- 高中学历证明
+- 相关科目的成绩单或证书（如生物、化学）
+- 健康体检报告
+建议直接访问东国大学官网（https://ipsi.deu.ac.kr/main.do）查看最新的招生简章和具体要求，以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>6.331916291663653e-06</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 대부분의 전형은 수능 최저학력 기준을 적용하지 않습니다. 이는 표에서 확인할 수 있습니다:
+- 가군 수능(일반학생전형): 수능최저기준 없음
+- 나군 수능(일반학생전형): 수능최저기준 없음 
+- 다군 수능(일반학생전형): 수능최저기준 없음
+따라서 정시모집에서 대부분의 전형은 수능 최저학력 기준이 없습니다. 단, 일부 특별한 전형에서는 수능 최저학력을 요구할 수도 있으므로, 해당해 있는 전형에 대해서는 확인이 필요합니다.
+만약 특정 전형의 경우 수능 최저학력을 요구하고 있다면 표에서 해당하는 전형을 찾아보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>2.931560947043713e-06</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 충원합격자를 발표합니다. 
+특히 주의할 점은:
+- 3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다.
+- 지원자는 이 기간 동안 전화연락을 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.3448990873693051</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>3차 충원 합격자는 다음과 같은 일정에 따라 발표됩니다:
+- 2024. 02. 15.(목) 09:00 - 3차 충원 합격자 발표 (인터넷)
+- 2024. 02. 15.(목) 09:00~16:00 - 3차 충원 합격자 등록 (인터넷)
+이 외에도 추가 합격자는 다음과 같이 발표됩니다:
+- 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 - 3차 이후 충원 합격자 발표 (개별 전화 통보)
+- 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 - 3차 이후 충원 합격자 등록 (개별 전화 통보)
+따라서 추가합격자는 최소한 2024년 2월 15일부터 2월 20일까지 발표되며, 이 중 일부는 인터넷으로, 일부는 개별 전화 통보로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.1952953915539862</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2024학년도 동점자 처리와 관련하여 추가모집이 이루어질 수 있습니다. 
+특히, 합격자 발표 및 등록금 납부 과정에서 최초합격자부터 충원합격자까지의 발표는 홈페이지를 통해 실시되며, 모든 지원자는 해당 일정에 맞춰 합격 여부를 확인해야 합니다.
+3차 이후 충원합격자 발표 과정에서는 전화 연락 두절로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주될 수 있습니다. 따라서 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.
+또한, 모집군별 모집단위별 미등록, 포기 및 환불 등으로 인해 결원이 발생할 경우 그 인원만큼 예비후보 순위에 따라 충원합격자를 선발할 수 있습니다. 
+따라서 추가모집 가능성은 있음을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.08681282529915683</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학교에서 평생교육을 받은 학습자를 선발하기 위한 전형입니다. 주요 특징과 내용은 다음과 같습니다:
+1. 지원 자격:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+   - 만 30세 이상인 성인 학습자 (1994년 2월 28일 이전 출생)
+2. 모집 단위 및 인원:
+   - 미래융합대학 인문사회 라이프융합학부: 11명
+   - 미래융합대학 인문사회 부동산자산경영학부: 40명 (성인학습자 정원내 포함)
+   - 기타 계열 및 학과에 대한 모집인원은 표에서 확인 가능
+3. 전형 요소:
+   - 서류 평가: 70%
+   - 면접 평가: 30%
+4. 서류 제출 항목:
+   - 고교 졸업(예정)자 또는 검정고시 합격자
+   - 외국고교 졸업자 (필요한 경우 공증 및 아포스티유 확인 등)
+   - 기타 필요한 증빙서류
+5. 서류 제출 기간: 2024년 1월 3일(수) ~ 12일(금) 17:00까지 도착분에 한함
+   - 제출 장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+6. 서류 평가 영역:
+   - 공동체역량
+   - 학업역량
+   - 전공적합성
+7. 면접 평가 주요 내용:
+   - 지원동기 및 학업계획 발표
+   - 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+8. 동점자 처리 기준:
+   1등급: 면접고사 성적 상위자
+   2등급: 서류평가 공동체역량 영역 성적 상위자
+   3등급: 서류평가 전공적합성 영역 성적 상위자
+평생학습자전형은 평생교육을 받은 학습자를 대상으로 하며, 다양한 교육 경험이 있는 지원자가 유리합니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.445005192501453</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+- 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+이러한 조건을 만족하는 지원자가 해당 전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.4843965278578873</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 각 모집단위별로 지정된 장소에서 진행됩니다. 구체적인 장소는 전형일정 안내를 통해 확인할 수 있습니다.
+예를 들어, 레저스포츠학과와 태권도학과의 실기고사는 다음과 같이 안내되어 있습니다:
+- **레저스포츠학과**:
+  - 일시: 2024. 01. 16.(화)
+  - 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능
+- **태권도학과**:
+  - 일시: 2024. 01. 16.(화)
+  - 동일하게 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능
+- **디자인조형학과 (시각디자인, 산업디자인, 공예디자인)**:
+  - 일시: 2024. 01. 17.(수)
+  - 동일하게 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능
+따라서, 지원자는 해당 모집단위의 전형일정을 확인하여 실기고사 장소와 시간을 미리 알아두는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.0004857092297413377</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 구성되어 있습니다:
+1. 제자리 멀리뛰기 (240점, 24%)
+2. 메디신볼 던지기 (243점, 23%) 
+3. Z-런 (230점, 23%)
+각 실기종목은 운동복 및 운동화를 착용해야 하며, 특수화는 불가합니다. 신발바닥에 이물질이 가칠 수 없어야 합니다.
+실기 당일 부상 또는 기타 사유로 기권한 자(응급환자 포함)에게는 해당 종목에 최저점수를 부여하며, 각 실기종목별 2회 반칙자에게도 최저점수를 부여합니다.
+따라서 체육학과의 실기고사는 위의 세 가지 실기종목을 준비하여 응시하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.004945448729172787</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의하시기 바랍니다.
+따라서 수시 충원합격자 발표 시에는 전화로 통보는 이루어지지 않으며, 지원자는 홈페이지를 통해 합격 여부를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.3946167036466226</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 정확한 수시모집 결과에 대한 정보가 제공된 데이터에서 찾을 수 없습니다. 제공된 정보는 주로 2024학년도와 관련된 내용으로, 이전 년도의 모집 결과나 세부적인 통계는 포함되어 있지 않습니다.
+만약 2023학년도 경찰행정학과의 수시모집 결과를 알고 싶다면, 다음과 같은 방법을 추천드립니다:
+1. 동의대학교 입학처 웹사이트를 방문하여 공식 발표 자료 확인
+2. 한국대학입학사정관협회(KAAS) 웹사이트에서 관련 정보 검색
+3. 동의대학교 입학상담 센터에 직접 문의
+이러한 방법들을 통해 가장 정확하고 최신의 정보를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.1022027959964929</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 동일계 전형 중 일부에서는 수능을 응시하지 않아도 지원이 가능합니다. 특히, 학생부종합전형과 실기/실적 위주 전형은 수능 점수를 요구하지 않습니다.
+예를 들어:
+- **학생부교과(농어촌학생전형)**: 농어촌 지역 출신자에게 특화된 전형으로, 수능 성적이 아닌 학생부 교과성적을 중점적으로 평가합니다.
+- **학생부종합(평생학습자전형), (성인학습자(정원내)전형), (성인학습자(정원외)전형), (재직자전형), (조기취업형계약학과전형)**: 이들 전형은 학생부 교과성적, 면접 성적 등을 종합적으로 평가하므로 수능 점수를 요구하지 않습니다.
+따라서, 수능을 응시하지 않아도 위와 같은 전형들을 통해 지원할 수 있습니다. 하지만 특정 전형에서는 수능 점수가 필요하거나 가산점이 부여될 수 있으니, 각 전형의 세부 조건을 꼭 확인하시기 바랍니다.
+더 자세한 내용은 동일계 대학의 공식 홈페이지나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>4.806400457110334e-06</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>一般来说，超过一定年限（通常是10年）后就不再接受普通高考的报名了。不过，您提到的情况是关于成人教育或重新入学的可能性。
+根据提供的信息，东国大学对于一些特定类型的招生有针对成人的特殊政策：
+- **平生学習者（平生学習者转学生型）**：面向高中毕业10年以上的人群。
+- **成人学習者（成人学習者正选型和附加选型）**：面向30岁以上，或高中毕业10年以上的成年人。
+因此，如果您已经高中毕业超过10年，并且满足其他条件的话，可以考虑申请东国大学的平生学習者或成人学習者相关项目。建议您访问东国大学官方网站或联系招生办公室获取最新的详细信息和具体要求。
+如果不符合这些特殊类型的招生条件，则需要通过普通高考或其他适用的入学途径进行申请。</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>2.805898643866718e-79</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집일정은 다음과 같습니다:
+1. **원서접수(인터넷)**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 6일 (토) 18시까지
+   - 접속 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+2. **서류제출**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 12일 (금) 17시까지 도착
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+3. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과: 2024년 1월 16일 (화)
+4. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인): 2024년 1월 17일 (수)
+   - 체육학과: 2024년 1월 17일 (수)
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2월 13일 (화)
+   - 충원 합격자 발표 및 등록: 
+     - 1차: 2024년 2월 14일 (수) 9시
+     - 2차: 2024년 2월 15일 (목) 9시
+     - 3차 이후: 개별 전화 통보
+6. **합격자 발표 및 등록금 납부**:
+   - 충원 합격자는 지정 기간 내에 등록금을 납부해야 합니다.
+   - 지정 기일 내에 등록금을 납부하지 않으면 입학이 포기됩니다.
+이 일정은 동의대학교 정시 모집의 주요 단계를 포함하며, 지원자들은 이 일정을 준수하여 원활한 지원 과정을 진행할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.3280157477971951</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+2. **원서접수(인터넷)**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 6일 (토) 18시까지
+   - 접속 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 12일 (금) 17시까지 도착
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **실기고사**:
+   - 레저스포츠학과, 태권도학과: 2024년 1월 16일 (화)
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과: 2024년 1월 17일 (수)
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14:00
+     - 홈페이지에서 개별 조회 가능
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 13일 (화) (은행마감시간 내)
+6. **충원 합격자 발표 및 등록**:
+   - 1차 충원 합격자 발표: 2024년 2월 14일 (수) 09:00
+     - 홈페이지에서 개별 조회 가능
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 1차 충원 합격자 등록: 2024년 2월 14일 (수) 09:00 ~ 16:00
+   - 2차 충원 합격자 발표: 2024년 2월 15일 (목) 09:00
+     - 홈페이지에서 개별 조회 가능
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 2차 충원 합격자 등록: 2024년 2월 15일 (목) 09:00 ~ 16:00
+   - 3차 이후 충원 합격자 발표 및 등록: 개별 전화 통보
+이 일정은 일반적으로 동의대학교 정시모집에서 지원자가 참고해야 하는 주요 기간들입니다. 각 단계별로 필요한 준비와 서류 제출 등을 체크하여 진행하면 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.6469347634751782</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. 실기/실적 위주 전형 (가군, 나군, 다군)
+   - 레저스포츠학과, 태권도학과
+   - 디자인조형학과, 체육학과
+   - 경기지도학과
+2. 학생부교과(농어촌학생전형) 
+   - 수능 미응시 가능 (수학 미적분/기하 응시 필수)
+3. 학생부종합 전형 (성인학습자, 재직자 등)
+   - 일부 모집단위에서 수능 미응시 가능
+이러한 전형들은 주로 실기 능력이나 특별한 경험이 요구되거나, 수능 성적보다는 학생부 성적이 더 중요하게 평가되는 경우에 해당합니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.09853682147926411</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024년도 전형 일정에서 전자공학과의 충원 합격 정보는 제공되지 않았습니다. 하지만, 일반적으로 전자공학과와 같은 인기 있는 학과는 종종 최초합격 이후 여러 차례의 충원 과정을 거칩니다.
+2023년도의 경우를 참고로 설명드리면:
+- 1차 충원: 2024. 02. 14.(수) ~ 2024. 02. 20.(화)
+- 2차 충원: 2024. 02. 15.(목) 09:00~16:00
+- 3차 이후 충원: 개별 전화 통보
+따라서, 전년도에 전자공학과의 경우 최소 1차부터 시작하여 3차까지 또는 더 많은 차수로 충원 합격이 이루어졌을 가능성이 높습니다. 하지만 정확한 정보는 해당 대학에서 공식적으로 발표한 내용을 참고해야 합니다.
+만약 자세한 정보가 필요하시다면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.04936311397832484</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到东义大学入学处的电话号码。根据最后一条数据中的联系方式，您可以联系以下电话进行咨询：
+(주)유웨이어플라이 : 1588-8988 (http://www.uwayapply.com)
+如果您需要直接联系东义大学入学处，请访问其官方网站或在提供的联系方式中查找更具体的入学处联系电话。如果没有找到相关信息，建议直接访问东义大学的官方网站以获取最新和最准确的信息。
+如果需要进一步的帮助来找到正确的电话号码或其他信息，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.01473755496015297</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에게는 개별 전화 통보方式进行翻译：
+关于3次补充录取通知，如果通过电话联系不到候选人，会如何处理？
+根据提供的信息，在2024年2月15日至20日之间进行第3次及后续补充录取通知。如果在此期间无法通过电话联系到被通知人（即电话多次拨打无人接听），则会被视为放弃录取资格。
+具体来说：
+- 在2024年2月15日至20日期间，会继续尝试通过电话联系候选人。
+- 如果在多次尝试后仍然无法接通电话，则该候选人将被视为放弃了补充录取机会，并被视作自动退选（即等同于未注册）。
+因此，建议所有被通知到的候选人务必确保在此期间保持电话畅通，以便及时确认录取资格。</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.09052366331873628</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>6년 과정 또는 12년 과정에 따라 다르게 제출해야 하는 서류가 있습니다. 
+6년 과정의 경우:
+- 지원자 본인의 가족관계증명서 1부 
+- 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부
+12년 과정의 경우:
+- 지원자 본인의 주민등록초본 1부 
+- 초등학교 학교생활기록부 1부  
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부
+이 외에 모든 지원자는 제출기간 내에 서류를 제출해야 하며, 제출장소는 (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀입니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.2819317526493504</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+이러한 서류는 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.
+추가로 주의사항은:
+- 제출기간은 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+- 서류제출 여부는 홈페이지에서 확인 가능하며, 반드시 본인의 서류제출 여부를 확인해야 합니다.
+- 미제출 또는 미확인으로 인한 불이익은 전적으로 지원자 본인에게 있습니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.4677549400993014</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有明确提到在2024年定期招生（정시모집）中的低收入机会均等类型（저소득 기회균등 전형）是否会进行选拔。因此，根据给出的信息无法确定是否会有此类选拔。
+如果您需要更准确的答案，请访问以下网站以获取最新信息：https://ipsi.deu.ac.kr/main.do
+或者您可以直接联系学校招生办公室确认具体的招生计划和政策。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.1977704855602539</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2.5등급은 절사하여 3등급으로 처리됩니다.
+수능 과학탐구(사탐)의 등급 평균산출 시, 소수점 셋째 자리에서 절사 처리한다는 내용이 포함되어 있습니다. 따라서 2.5등급은 3등급으로 반올림하여 처리될 것입니다.
+참조해보면:
+- [표 추가내용] 부분에 "등급 평균 산출 시 소수점 셋째 자리에서 절사 처리합니다."라고 명시되어 있습니다.
+따라서, 사탐 2 과목의 평균이 2.5등급이라면, 이는 3등급으로 반올림하여 처리됩니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.2122332360420193</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 3차까지 있습니다.
+발표 일정은 다음과 같습니다:
+1. 2024년 2월 14일(수) 09:00 - 1차 충원 합격자 발표
+2. 2024년 2월 15일(목) 09:00 - 2차 충원 합격자 발표
+3. 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지 - 3차 이후 충원 합격자 발표 (개별 전화 통보)
+따라서 총 3차로 정시 충원 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.5258580806032058</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. e비즈니스학과的招生计划和录取标准。
+2. 相关科目的成绩要求（特别是国语、数学、英语等）。
+3. 是否有最低分数线。
+根据提供的表格信息，“e비즈니스学与”属于“上经学院”的“人文社会”系。从“多军高考(普通学生类型)招生计划及名额表”中可以看到，该专业的招生人数为10人。
+关键在于成绩计算方法和录取标准：
+- 根据“多军高考(普通学生类型)成绩评分方法”，e비즈니스学与的成绩计算方式是：
+  国语（语法写作或语言与媒体）25% + 数学（概率统计或微积分或几何）25% + 英语 25% + 探究（社会探究或科学探究 - 两个科目合计）25%
+假设4.6是数学的标准化分数，我们需要知道其他科目的成绩。
+如果e비즈니斯学与的成绩计算如下：
+- 国语：x
+- 数学：4.6
+- 英语：y
+- 探究：z
+总分 = 0.25x + 0.25*4.6 + 0.25y + 0.25z
+我们需要知道这个总分是否达到了该专业的最低录取分数线。
+但是，从提供的信息中我们无法直接得出具体的最低分数线。因此，要确定是否能通过正取或补录被e비즈니스学与专业录取，需要：
+1. 查看该专业的具体最低录取分数。
+2. 确认其他科目的成绩情况。
+建议查看学校官网发布的详细招生简章和往年录取数据来获取更准确的信息。如果不确定，可以联系学校的招生办公室进行咨询。</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.08794929031594309</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. e비즈니스学科的录取标准。
+2. 您的成绩（等第为5.3）在该学科中的竞争力。
+根据提供的信息，“e비즈尼斯学과”的“수능 4개 영역 (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 }”一栏显示，其平均分为426.13，标准差为7.46。这意味着大多数被录取的学生的分数集中在该均值附近。
+您的成绩等第为5.3，在韩国高考中通常对应的是一个相对较高的分数。但是，具体到e비즈尼斯学과这个专业，我们需要知道5.3对应的标准化分数是多少。
+假设5.3等第大约相当于平均分加上1个标准差（这只是一个粗略的估计），那么：
+426.13 + 7.46 ≈ 433.59
+这意味着您的成绩如果换算成标准化分数，可能接近或略高于该专业的平均录取分数线。然而，实际录取情况还取决于其他因素，如竞争程度、招生计划等。
+因此，从这个角度来看，您有可能被e비즈尼斯学과录取，但并不是非常有把握。建议您密切关注学校发布的最新信息，并做好准备应对可能的结果。</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.0697774009898369</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看相关的信息。根据提供的表格信息，“e비즈니스학과”的录取标准如下：
+1. ** 지원 인원 (申请人数)**: 89人
+2. ** 경쟁률 (竞争比)**: 8.90
+从这些数据来看，e비즈니스学专业的竞争非常激烈。为了预估是否有可能被预录取（예비합격），我们需要知道具体的分数情况。
+假设您提供的信息是该考生在“国语 + 数学 + 探究(2个科目)”的标准化转换总分以及英语等级和各科目的标准化转换平均值与标准差：
+- 国语 + 数学 + 探究 (加权后) 总分: 308.58
+- 英语等级: 4.20
+根据“e비즈니스学”专业的录取标准，我们可以参考以下几点来判断可能性：
+1. **总分**: 该考生的总分为308.58，在所有申请者中处于较高水平。
+2. **英语等级**: 英语等级为4.20，也属于较好成绩。
+然而，仅凭这些信息还不足以确定是否能被预录取。还需要考虑其他因素如面试表现、个人陈述等。此外，具体的预录取分数线需要参考学校发布的最新数据或公告。
+建议您查看学校的官方网站或者联系招生办公室获取最新的预录取分数线和具体要求，以获得更准确的答案。如果可能的话，也可以咨询已经成功申请到该专业的学长学姐，了解他们的经验和建议。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.02135397964634745</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 충분히 합격할 수 있는 점수일 가능성이 있습니다. 하지만 정확한 합격 여부는 여러 요소가 영향을 미칩니다:
+1. **모집인원 및 지원자 수**: 모집인원이 적고 지원자가 많지 않다면, 낮은 등급도 합격할 수 있습니다.
+2. **경쟁률**: 동의대학교 간호학과의 경쟁률을 확인해야 합니다. 경쟁률이 높으면 3.44는 낮은 점수일 수 있지만, 경쟁률이 낮다면 가능성이 있습니다.
+3. **학생부 등급 및 기타 요인**: 학생부 등급, 면접 성적 등 다른 평가 항목도 고려됩니다.
+4. **최종 합격자 발표**: 최종 합격자 발표를 통해 실제 합격 기준을 확인할 수 있습니다.
+5. **전형 유형**: 정시 모집과 비교해 특별전형(예: 실기/실적, 학생부교과 등)의 경우 다른 기준이 적용될 수 있습니다.
+따라서 3.44라는 점수만으로는 확정적으로 판단하기 어렵습니다. 최종 합격자 발표를 통해 실제 합격 기준을 확인하고, 지원 전에 동의대학교 입학 홈페이지나 관계부서와 상담하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.0911846113609124</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 수능 최저점은 3.12입니다 (표에서 확인 가능). 
+당신의 성적이 2.52이므로, 현재로서는 간호학과에 합격하기 어려울 것으로 보입니다.
+하지만 정시 모집에서는 수능 점수 외에도 학생부 등 다른 평가 요소도 고려됩니다. 따라서 다음과 같은 방법들을 시도해 볼 수 있습니다:
+1. 강점을 잘 부각시키는 자기소개서 작성
+2. 관련 활동이나 경험을 자세히 기재한 추천서 준비 
+3. 학생부 성적을 최대한 높이는 노력을 하는 것
+또한, 간호학과 외 다른 전공들도 고려해 볼 수 있습니다.
+결론적으로 현재의 성적이 낮아서 확실하게 합격할 수는 없지만, 다양한 방법으로 지원 가능성을 높일 수 있을 것으로 보입니다. 최종 결정을 내리기 전에 동의대학교 입학처와 상담하는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.1156337822824311</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 간호학과에서 보통 충분한 점수일 것입니다. 그러나 간호학과의 입학 경쟁률과 모집인원, 그리고 해당 전형의 평균 성적 등을 고려해야 합니다.
+간호학과의 특징:
+1. 간호학과는 일반적으로 높은 경쟁률을 보입니다.
+2. 학교마다 다르지만, 많은 경우 간호학과에서는 GPA뿐만 아니라 다른 요소들도 중요하게 평가합니다 (예: 인성, 동기부여, 실적 등).
+3. 일부 대학에서는 수능 점수도 고려할 수 있습니다.
+추천 사항:
+1. 해당 학교의 정시 모집요강을 꼭 확인하세요.
+2. 간호학과의 평균 GPA와 경쟁률을 파악해보세요.
+3. 다른 평가 요소들도 준비해두세요 (면접, 서류 등).
+4. 여러 대학에서 지원하는 것이 좋습니다.
+결론적으로 3.7의 GPA만으로는 확실한 합격을 보장할 수 없습니다. 그러나 충분히 경쟁력을 갖추고 있으므로, 추가적인 준비와 지원 전략을 세우면 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.07676031064184119</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2.58이라는 점수로 동의대학교 간호학과에 정시 전형으로 합격하기는 어렵다고 보여집니다.
+이유는 다음과 같습니다:
+1. 간호학과 모집인원: 22명
+2. 지원 인원: 145명
+3. 경쟁률: 약 6.59대1 (평균점수 기준)
+4. 최종 등록자의 평균 점수:
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 357.63
+   - 영어 등급: 1.86
+   - 수능 4개 영역 표준 변환 점수 합: 489.72
+5. 지원자의 성적이 평균점수와 비교해 상당히 낮습니다.
+정시 전형에서 합격하기 위해서는:
+1. 국어, 수학, 탐구 과목의 고득점을 얻어야 합니다.
+2. 영어 등급이 높아야 합니다.
+3. 전체 수능 점수가 평균 이상이어야 합니다.
+현재 성적이 저조한 만큼, 간호학과에 정시 전형으로 합격하기는 어려울 것으로 보입니다. 다른 전형이나 대비 과정을 고려해보는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.09742186484512673</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我需要查看一些具体信息。根据您提供的数据表，游戏学专业（게임공학과）的录取情况如下：
+- 总招生人数：3人
+- 实际申请人数：16人
+从这些数字来看，竞争非常激烈。
+关于是否能被录取的问题，这取决于多个因素：
+1. 您的具体分数和排名。
+2. 其他候选人的成绩。
+3. 是否有其他特殊条件或加分项（如特长、面试等）。
+建议您：
+1. 查看自己的成绩在所有申请者中的具体排名。
+2. 关注学校发布的录取信息，通常会在一定时间后公布预录名单和最终录取结果。
+3. 保持与学校的沟通，了解最新的招生动态。
+如果您希望提高被录取的机会，可以考虑准备一些额外的材料或参加面试等环节。祝您好运！</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.035382006685753</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>4.16이라는 표준점수는 상당히 높은 점수입니다. 동의대학교 게임공학과의 경우, 해당 모집단위의 경쟁률과 모집인원 등을 고려해야 합니다.
+게임공학과의 모집인원과 지원 인원을 확인해보겠습니다:
+- 2024년도 모집인원: 35명
+- 2024년도 지원 인원: 69명
+경쟁률은 다음과 같습니다:
+\[ \text{경쟁률} = \frac{\text{지원 인원}}{\text{모집인원}} = \frac{69}{35} \approx 1.97 \]
+이 경쟁률을 고려하면, 평균적으로 한 명당 약 2명 정도가 합격합니다.
+4.16이라는 점수는 상위권의 성적입니다. 이 점수를 가진 지원자가 대체로 선호받을 것으로 예상되므로, 추가 합격 확률은 높아 보입니다.
+따라서, 4.16정도의 표준점수를 가진 지원자라면:
+- 최소한 2번 이상의 추가 합격 가능성은 있습니다.
+- 더 좋은 성적을 받았다면, 3번 또는 4번까지의 추가 합격 가능성이 높아질 수 있습니다.
+결론적으로, 4.16정도의 표준점수를 가진 지원자라면, 게임공학과에서 최소 2번 이상의 추가 합격 가능성은 매우 높습니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.09154797646962005</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看经管信息学部（经营信息学和e商务学）的2024年招生标准。根据提供的数据表《2024学年各专业录取情况》，我们可以找到相关信息。
+从表格中可以看到：
+- 经营信息学部（经管信息学和电子商务学）的国语、数学、英语等科目平均成绩要求为3.8分。
+- 该专业的标准差为0.75分。
+你的成绩是3.75，略低于平均分。但是，考虑到标准差较小，3.75的成绩仍然接近平均线，并且在实际录取过程中可能会有一些灵活性和变通性。
+因此，理论上来说，如果你的其他条件都符合要求（如科目成绩、面试表现等），并且你的综合情况较好，那么你有可能被列为初审合格者。但是，最终是否能够成为初审合格者还需要根据学校的具体评审标准来决定。
+建议：
+1. 确认自己是否满足所有报名资格。
+2. 准备好其他可能需要提交的材料（如推荐信、个人陈述等）。
+3. 密切关注学校的官方通知和公告，以获取最新的招生信息。
+希望这些信息对你有所帮助！如果有更多具体问题或需要进一步的帮助，请随时告诉我。</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.02335528440777898</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>为了判断您是否有可能成为经营信息学部的正试录取者，我们需要参考该专业的相关数据。根据提供的表格“2024学年各专业招生计划”，我们可以查看经营信息学部的相关信息。
+从给定的数据来看：
+- 经营信息学部（经管信息学）在2024年的招生人数为9人。
+- 申请人数为95人，竞争比为10.56:1。
+- 最终注册者平均综合成绩为326.89分。
+您的成绩是4.2，这相当于综合成绩中的4.2等。根据提供的数据，经营信息学部的最终录取者的平均综合成绩为326.89分（标准差为5.90），而您提到的成绩为4.2，这个分数相对较低。
+因此，从给出的数据来看，您的成绩可能不足以成为正试录取者。但具体能否录取还需要考虑其他因素，如排名、招生计划的调整等。建议您仔细查看学校的具体招生政策和最终录取分数线，并参考往年的录取情况来做出判断。
+如果您想确认是否有可能被录取，可以访问东国大学入学信息网或直接联系学校的招生办公室获取更详细的信息。</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.01348391373253792</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과 일반학생전형에 대한 수능 최종등록자 정보를 보면, 해당 학과의 수능 4개 영역 표준 변환 점수 평균은 3.88입니다 (표준 편차는 0.56). 
+당신이 언급한 수능 성적 5.33은 이 평균보다 높습니다. 경영정보학과의 경쟁률도 매우 높았는데, 최종등록자 중 가장 낮은 경쟁률은 10.56였습니다 (표준 편차는 0.98).
+따라서 수능 성적이 5.33이라면, 이 정도 점수로는 합격 가능성이 매우 높다고 볼 수 있습니다. 하지만 최종합격 여부는 면접 등 다른 평가 요소와도 연관되어 있으므로, 확실한 것은 입학사정관의 심사를 통과하는 것입니다.
+결론적으로, 당신의 수능 성적은 경영정보학과 일반학생전형에 합격할 가능성이 매우 높다고 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.1859915574885747</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학과의 경우, 학생부종합(조기취업형계약학과전형)으로 모집되며, 이는 서류 평가와 면접 평가를 통해 선발됩니다. 성적 기준은 주로 수능 점수보다는 학생부 교과성적과 면접 성적이 중요합니다.
+주요 정보:
+1. **전형 유형**: 학생부종합(조기취업형계약학과전형)
+2. **전형 요소 반영 비율**:
+   - 서류: 60%
+   - 면접: 40%
+3. **학생부 교과성적 반영 방식**:
+   - 전 모집단위(한의예과 제외): 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   - 한의예과: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+4. **성적 기준**:
+   - 성적이 3.33 정도라면, 이는 중간적인 성적을 의미합니다.
+   - 바이오응용공학과는 주로 학생부 교과성적과 면접 성적이 중요하므로, 성적이 3.33이라면 서류 평가에서 좋은 점수를 받기 위해서는 다음과 같은 요소들이 필요할 수 있습니다:
+     - 국어, 수학, 영어 등 주요 과목의 석차등급이 높아야 합니다.
+     - 진로선택과목에서도 좋은 성적을 받아야 합니다.
+5. **면접 성적**:
+   - 면접에서는 지원동기와 전공 적합성 등을 평가받습니다. 따라서, 명확한 지원 동기가 있고, 해당 전공에 대한 열정이 있는지 등 면접관의 질문에 잘 대답할 수 있어야 합니다.
+결론적으로, 성적이 3.33이라면 서류 평가에서 좋은 점수를 받기 위해서는 주요 과목의 석차등급이 높아야 하며, 면접에서도 좋은 성적을 받아야 합니다. 따라서 가능성이 있지만 확실한 것은 아닙니다. 지원 시에는 다음과 같은 준비를 하는 것이 좋습니다:
+1. **학업성적 향상**: 주요 과목의 석차등급을 높이기 위해 노력합니다.
+2. **면접 준비**: 면접 질문에 대한 답변을 미리 준비하고, 지원 동기에 대해 명확하게 설명할 수 있도록 합니다.
+따라서, 성적이 3.33이라면 가능성이 있지만 확실한 것은 아닙니다. 최선의 결과를 얻기 위해서는 주요 과목의 석차등급을 높이고 면접 준비도 철저히 하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.00888611559613778</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>4.4등급으로 방사선학과에 지원하는 것은 가능하지만 경쟁률이 매우 높을 것으로 예상됩니다.
+방사선학과의 특징:
+- 모집인원: 5명
+- 지원 인원: 36명
+- 경쟁률: 7.20
+4.4등급은 이 경쟁률에 비해 상대적으로 낮은 등급입니다. 하지만 몇 가지 방법을 통해 가능성을 높일 수 있습니다:
+1. 좋은 서류평가 결과를 얻는 것: 학업역량, 전공적합성 등의 평가에서 우수한 점수를 받는 것이 중요합니다.
+2. 면접 성적이 좋게 나와야 합니다: 면접에서는 자신의 열정과 적합성을 잘 표현해야 합니다.
+3. 추가 지원 자격이 있는지 확인하기: 특별한 경력이나 활동 등으로 지원자에게 유리한 점을 찾아볼 수 있습니다.
+4. 다른 전형도 고려해보기: 실기/실적 위주 전형 등을 함께 준비해 볼 수도 있습니다.
+결론적으로 4.4등급으로는 낮은 확률이지만, 최선을 다하고 다양한 방법을 시도한다면 가능성을 높일 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.07321179237627892</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2.66의 GPA는 방사선학과에서 보통 중간 정도의 성적을 의미합니다. 하지만 이 수치가 위험하다고 할 수 있는지 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. **전반적인 경쟁률**: 동의대학교 방사선학과의 정시 모집인원과 지원자 수를 고려해 보세요. 경쟁률이 높다면, 2.66은 약간 낮은 편일 수 있습니다.
+2. **모집요강**: 각 과목별 석차 등급을 확인하고, 이 중에서 방사선학과가 중요하게 평가하는 과목의 성적을 보세요. 예를 들어, 생물이나 물리학 등 특정 과목이 높은 점수를 요구한다면 2.66은 낮을 수 있습니다.
+3. **추천서와 자기소개서**: 이 부분에서 강점을 보여줄 수 있다면, GPA가 조금 낮더라도 합격 가능성은 높아질 수 있습니다.
+4. **기타 활동**: 자원봉사, 연구 프로젝트 등 추가적인 활동이 있다면 이를 활용해 자신의 경쟁력을 강화할 수 있습니다.
+5. **전형별 평가 요소**: 나군 학생부종합 전형에서는 서류와 면접의 비중이 높으므로, 이 부분에서 좋은 성적을 보여줄 수 있다면 GPA가 낮더라도 큰 문제가 되지 않을 수 있습니다.
+결론적으로 2.66은 약간 위험할 수 있지만, 전체적인 지원 자질과 활동 등을 고려하면 합격 가능성은 여전히 존재합니다. 꼭 전형별 평가 요소와 모집요강을 철저히 분석하고 자기소개서 등에서 이를 강조하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.04694492188352411</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66이라는 성적을 가지고 경찰행정학과의 농어촌 전형에 지원한다면 합격 가능성은 낮다고 볼 수 있습니다.
+이유는 다음과 같습니다:
+1. 경찰행정학과의 평균 합격 점수:
+   - 2024년 모집에서 경찰행정학과의 평균 합격 점수는 330.71입니다.
+   - 이 점수가 3.66보다 훨씬 높습니다.
+2. 농어촌 전형의 특성:
+   - 농어촌 전형은 일반적으로 경쟁률이 낮고 합격 기준이 비교적 낮아집니다.
+   - 하지만 여전히 모집 인원을 충족시키기 위해 적정한 점수 이상은 필요합니다.
+3. 성적 평균과 표준 편차:
+   - 해당 전형의 국어 + 수학 + 탐구(2개) 합성점수 평균은 310.88입니다.
+   - 이는 3.66보다 높습니다.
+4. 경쟁률 확인:
+   - 지원자의 성적과 모집 인원을 고려할 때, 경쟁률이 매우 높아 보입니다.
+결론적으로:
+- 현재의 성적만으로는 합격하기 어렵다고 판단됩니다.
+- 추가적인 지원 자료나 특별한 경험이 있다면 이를 강조하는 것이 좋습니다.
+- 다른 전형이나 대학을 고려해보는 것도 방법일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.2097262637499714</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25명 중에서 선발 인원은 몇 명인가요? 그리고 지원자의 수능 점수와 등급, 탐구 과목의 성적 등을 고려해보면 어느 정도의 경쟁률을 기대할 수 있을지 추정이 가능합니다. 
+예를 들어:
+1. 모집 인원: 7명
+2. 지원 인원: 25명
+3. 경쟁률: 약 3.57 : 1
+이렇게 되면 선발 확률은 상대적으로 높을 수 있습니다.
+하지만 정확한 가능성은 다음과 같은 요소들에 따라 달라집니다:
+- 지원자의 수능 점수와 등급
+- 탐구 과목의 성적 
+- 모집 단과대학 및 전공의 경쟁도
+- 다른 지원자들의 평균 점수
+정확한 확률을 계산하기 위해서는 위에 언급된 요소들을 고려해야 합니다. 
+추천 드리는 것은:
+1. 자신의 수능 성적을 잘 분석해보세요.
+2. 모집 단과대학 및 전공의 경쟁도를 확인하세요.
+3. 다른 지원자들의 평균 점수와 비교해보세요.
+이런 정보들을 종합적으로 고려하면 더 정확한 가능성 판단이 가능할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.1834178979972453</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시 모집에 대해 정확한 평균 성적을 예측하기는 어렵습니다. 하지만 일반적으로 다음과 같은 요소들을 고려할 때 안정적인 합격 가능성을 높일 수 있습니다:
+1. **전반적인 경쟁률**: 법경찰행정학부는 인기 학과로 알려져 있어, 정시 모집에서도 높은 경쟁률을 기대해야 합니다.
+2. **성적 평균**: 
+   - 국어: 90점 이상
+   - 수학: 85점 이상 (특히 미적분 등급이 높아야 함)
+   - 영어: 70점 이상
+   - 사회/과학: 각각 3등급 이상
+3. **전체 성적 평균**: 
+   - 국어 + 수학 + 탐구(2과목)의 표준 변환 점수 합이 450점 이상 (평균 90점 이상)
+   - 영어 등급이 B등급 이상
+4. **경쟁률 고려**: 최근 몇 년간의 경쟁률을 참고하여, 평균 성적이 100점대 초반에서 120점대를 받는 학생들이 안정적으로 합격하고 있습니다.
+5. **추천서 및 자기소개서 등 추가 요인**: 서류평가와 면접에서도 좋은 점수를 받을 수 있도록 준비해야 합니다.
+따라서, 법경찰행정학부에 정시로 들어갈려면 평균 성적이 90점 이상의 국어, 수학(특히 미적분), 영어 등급이 B등급 이상, 그리고 사회/과학에서 각각 3등급 이상을 받는 것이 안정적인 합격 가능성을 높일 것입니다. 하지만 이는 예측이며, 실제 경쟁률과 입시 전략에 따라 변동될 수 있습니다.
+추가적으로, 동의대학교 입학 홈페이지나 입학처와 상담하여 최신 정보를 확인하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.3703968797191693</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 보육가정상담학과의 경우, 학과 분리로 인해 아동학과로 변경되었습니다. 따라서 현재 질문은 "아동학과"에 대한 정보를 기반으로 답변해야 합니다.
+보육가정상담학과(현재는 아동학과)의 입학 경쟁률과 최종 등록자들의 성적을 고려할 때, 정시 산출 등급이 5.33인 경우 합격 가능성은 다음과 같습니다:
+1. **경쟁률 확인**: 보육가정상담학과(아동학과)의 경쟁률을 확인해야 합니다. 이 정보는 동의대학교 입학 홈페이지나 공지사항에서 확인할 수 있습니다.
+2. **최종 등록자 성적 분석**: 최종 등록자의 평균 등급을 살펴보면, 5.33보다 높은 등급이 많다면 합격 가능성은 낮아질 것입니다. 반대로, 평균 등급이 5.33 이하라면 합격 가능성은 높아집니다.
+3. **최저합격선**: 동의대학교는 각 전형별로 최저합격선을 설정합니다. 정시 산출 등급이 최저합격선 이상이라면 합격 가능성이 있습니다.
+4. **전형별 특성**: 정시 모집에서는 수능 성적과 학생부 성적이 함께 고려됩니다. 따라서, 5.33의 정시 산출 등급만으로는 판단하기 어렵습니다. 전체적인 성적 평균을 고려해야 합니다.
+따라서, 정확한 답변을 위해서는:
+- **최종 등록자들의 평균 등급 확인**
+- **아동학과의 최저합격선 확인**
+- **전체 학업 성적 평균 확인**
+위 정보들을 종합적으로 분석해야 합니다. 만약 위 정보를 얻기 어렵다면, 동의대학교 입학 홈페이지나 관계부서에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.0895674532913346</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>3차 충원합격자 발표에서는 전형일정에 따라 개별 전화 통보를 통해 합격 여부를 확인해야 합니다. 따라서 현재로서는 확실한 합격 가능성을 판단하기 어렵습니다.
+다만, 예비 12번을 받았다는 것은 좋은 신호로 해석할 수 있습니다. 이는 해당 모집단위에서 선발 인원이 부족하여 예비 학생으로 선정된 것을 의미합니다. 하지만 최종 합격 여부는 개별 전화 통보를 통해 확인해야 합니다.
+주의사항:
+1. 반드시 합격자 발표일에 홈페이지를 통해 합격 여부를 확인하세요.
+2. 등록금 납부 기한 내에 등록을 완료해야 합니다.
+3. 개별 전화 통보 시 안내를 잘 따르세요.
+최종 결정은 개별 통보를 통해 알 수 있으므로, 기다리면서 준비를 철저히 하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.3473745821482287</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 한국의 대학입시에서 4.0이 평균이라면, 4.75는 매우 뛰어난 성적입니다.
+유아교육과의 경우, 일반적으로 다음과 같은 특징을 가지고 있습니다:
+1. 수능 중심 전형: 대부분의 유아교육과는 수능 점수가 중요한 요소로 작용합니다.
+2. 낮은 모집인원: 많은 지원자 중에서 선발하므로 경쟁률이 높습니다.
+3. 다양한 전형방법: 학생부종합전형, 실기/실적전형 등 다양한 방식으로 선발합니다.
+4.75라는 점수로 유아교육과에 지원한다면 다음과 같은 점을 고려해야 합니다:
+1. 수능 성적: 4.75는 매우 높은 점수이므로, 이만한 성적이면 충분히 합격 가능성이 있습니다.
+2. 학생부 및 기타 전형요소: 다른 전형 요소들도 중요하므로, 학생부와 면접 등에서 좋은 평가를 받는 것이 필요합니다.
+3. 경쟁률: 유아교육과의 경우 경쟁률이 높으므로, 최상위권의 성적을 가지고 있어야 합니다.
+결론적으로 4.75라는 점수로 유아교육과에 지원한다면 충분히 가능성이 있습니다. 그러나 최종 합격 여부는 여러 요소가综上所述，该考生的分数在4.75，对于幼儿教育学专业来说是很有竞争力的。</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.1319402631395117</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 보육가정상담학과(아동학과)에 지원하신다면, 환산등급 4.16은 좋은 성적입니다. 하지만 합격 여부는 여러 요소에 따라 결정되므로 확실한 것은 아닙니다.
+다음은 주요 고려사항들입니다:
+1. **전형 유형**: 보육가정상담학과(아동학과)는 일반학생전형으로 수능 위주로 평가됩니다. 따라서 수능 성적이 중요합니다.
+2. **수능 최저기준**: 2024년 동의대학교의 수능 최저기준은 공개되지 않았습니다만, 과거 데이터를 참고하면 대략적으로 3.5~4.0 정도의 등급이 필요했습니다. 따라서 4.16은 충분히 경쟁력을 갖추고 있습니다.
+3. **모집인원**: 해당 학과의 모집인원을 확인해야 합니다. 만약 모집인원이 많다면, 수능 성적이 높아야 합니다.
+4. **학생들의 평균성적**: 지원자의 수능 성적 분포를 파악하면 도움이 됩니다. 많은 지원자가 4.16 이상의 등급을 가지고 있다면 경쟁률이 높을 것입니다.
+5. **추합**: 추합은 고려해야 하지만, 대부분의 경우 수능 성적이 핵심입니다. 추합 점수는 추가적인 도움이 될 수 있지만, 기본적으로 수능 성적에 따라 결정됩니다.
+6. **전형요소 반영비율**: 일반학생전형에서는 수능 성적이 100% 반영되므로, 이 부분은 주요한 요인입니다.
+결론적으로, 환산등급 4.16은 좋은 성적으로 합격 가능성은 높지만, 최종 결정은 모집인원, 지원자들의 수능 성적 분포 등 여러 요소에 따라 달라질 수 있습니다. 정확한 확률을 알기 위해서는 동의대학교 입학처나 공식 홈페이지를 통해 추가 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.04070347131668917</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도 동일계열 학과인 소프트웨어공학부의 경우, 전형요소 반영비율 표에서 확인할 수 있습니다.
+- **전형명**: 나군 실기/실적(경기실적우수자전형)
+- **모집단위**: 소프트웨어융합학과
+- **평균 등급**: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+따라서, 소프트웨어융합학과를 정시로 지원하려면 다음과 같은 점수대를 목표로 해야 합니다:
+- **국어**: 4등급 이상
+- **수학**: 3등급 이상 (미적분 또는 기하)
+- **영어**: 5등급 이상
+- **사회(역사/도덕 포함)**: 4등급 이상
+- **과학**: 4등급 이상
+이러한 등급을 평균적으로 유지하면, 소프트웨어융합학과를 정시로 지원하는 데 유리할 것입니다. 하지만 최종 합격 가능성은 수능 성적뿐만 아니라 면접 및 서류평가 결과와도 밀접하게 연관되어 있으므로, 전반적인 경쟁력을 고려해야 합니다.
+추가적으로, 해당 학과의 모집인원과 지원자 수를 확인하여 더 정확한 평균 등급을 파악할 수도 있습니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>1.236753021200555e-07</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>1. **면접 점수와 세특 내용의 중요성**:
+   - 일반적으로, 면접 점수와 서류 평가(세부 특기사항)는 합격 결정에 중요한 역할을 합니다. 하지만 어떤 모집단위에서는 서류 평가가 더 큰 비중을 차지하기도 합니다.
+   - 소프트웨어 융합과 같은 전공의 경우, 면접에서 지원자의 문제 해결 능력과 진로 탐색 능력을 평가하는 것이 중요하지만, 서류 평가는 지원자가 해당 분야에 대한 이해와 관심을 보여주는 증거를 제공하기 때문에 중요한 역할을 합니다.
+2. **서류 준비**:
+   - **학교생활기록부**: 학교생활기록부는 필수적으로 제출해야 하는 서류입니다. 특히 창의적 체험활동, 교과학습발달상황(세부능력 및 특기사항 포함), 행동특성 및 종합의견 등이 중요합니다.
+   - **진로 탐색 활동**: 지원자가 어떤 진로 탐색 활동을 했는지 기재해야 합니다. 예를 들어, 특정 프로그램이나 동아리 활동 등을 통해 자신의 관심 분야와 적성에 대해 알아보았는지를 설명하는 것이 좋습니다.
+   - **특기사항 및 성과**: 지원자가 소프웨어 관련 활동에서 어떤 성과를 거두었는지 기재해야 합니다. 예를 들어, 프로젝트 참여나 대회 참가 등이 있습니다.
+3. **추천서**:
+   - 일부 모집단위에서는 추천서도 필요할 수 있으므로, 해당 정보를 확인하는 것이 좋습니다.
+4. **면접 준비**:
+   - 지원자의 학업역량과 전공적합성에 대한 질문을 받을 가능성이 높으므로, 이와 관련된 경험과 성과를 미리 준비해두세요.
+   - 진로 탐색 활동과 그 결과를 설명할 수 있는 예시도 준비해 두는 것이 좋습니다.
+따라서, 소프트웨어 융합과의 경우, 면접 점수와 서류 평가 모두 중요하므로 양쪽을 잘 준비하는 것이 좋습니다. 특히 세특 내용은 지원자의 전공적합성과 진로 탐색 능력을 보여주는 중요한 증거이기 때문에 충분히 준비해두는 것이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.001792329320969222</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부(컴퓨터소프트웨어공학 - 공학, 응용소프트웨어공학)의 전형요소 반영비율을 확인해보겠습니다.
+- **전형명**: 가군 수능(일반학생전형)
+- **모집단위**: 소프트웨어공학부 (컴퓨터소프트웨어공학 - 공학, 응용소프트웨어공학)
+- **전형요소 반영비율**:
+  - 수능: 100%
+이에 따라, 수능 성적이 중요합니다. 표에서 제공된 정보를 바탕으로:
+- **수능 4개 영역 등급 평균**: 4.87
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균**: 395.58
+이러한 정보를 바탕으로, 수능 성적이 4.08인 경우는 평균보다 약간 낮습니다. 그러나 최초합격자로 선발되는 것은 가능성이 있지만, 경쟁률과 지원자의 전체 성적 분포에 따라 결정될 것입니다.
+**결론**: 수능 성적이 4.08이라면, 소프트웨어공학부의 최초합격 가능성은 낮지만, 여전히 가능합니다. 실제 합격 여부는 경쟁률과 지원자의 전체 성적 분포에 따라 결정됩니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.2238226706204259</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도 동점자 처리기준에서 소프트웨어융합학과의 경우, 전반적으로 수능 성적을 기준으로 학생들을 선발합니다. 하지만 정확한 평균 등급을 예측하기 위해서는 해당 모집단위의 동점자 처리기준과 교과성적 반영 방식 등을 고려해야 합니다.
+주요 내용은 다음과 같습니다:
+1. **동점자 처리 기준**:
+   - 1순위: 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수) 영역의 합계점수 상위자
+   - 2순위: 인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수 상위자
+   - 3순위: 공과대학, ICT융합공과대학 모집단위 수능 수학(미적분 또는 기하) 응시자
+2. **교과성적 반영 방식**:
+   - 전반적으로 국어, 수학, 영어 등 주요 과목의 성적이 중요합니다.
+   - 일부 학과에서는 특정 과목의 성적이 더 중점을 두고 있을 수 있습니다.
+3. **등급 평균 산출**:
+   - 동점자 처리 시 등급 평균을 기준으로 선발하기 때문에, 5등급은 상대적으로 낮은 점수입니다.
+   - 하지만 다른 과목의 성적이 높다면 이는 어느 정도 보완될 수 있습니다.
+따라서, 5등급만 가지고 소프트웨어융합학과에 지원하는 것은 어렵다고 볼 수 있습니다. 그러나 다음과 같은 조건이 충족된다면 가능성이 있을 수 있습니다:
+- 다른 과목의 성적이 높은 경우 (예: 국어, 수학 등)
+- 모집단위별 특성화된 교과성적 반영 방식에 따라 이점이 있는 경우
+따라서, 5등급으로 지원하려면 다음과 같은 점들을 고려해야 합니다:
+1. **전반적인 성적 평균**:
+   - 다른 과목의 성적이 높아야 합니다.
+2. **모집단위 특성**:
+   - 해당 모집단위가 특정 과목을 중점적으로 평가하는지 확인해야 합니다.
+3. **면접 및 서류평가**:
+   - 면접이나 서류평가에서 우수한 성적을 보여줄 수 있어야 합니다.
+따라서, 단순히 5등급만으로는 소프트웨어융합학과에 지원하기 어렵다고 볼 수 있습니다. 다른 과목의 성적이 높거나 모집단위 특성에 맞춰 준비한다면 가능성이 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.04058379600384751</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 표준점수는 상당히 높은 점수입니다. 하지만 동의대학교 신소재공학과에 입학하기 위해서는 몇 가지 요인을 고려해야 합니다:
+1. 모집 인원: 신소재공학과는 56명을 모집하고 있습니다.
+2. 지원 인원: 81명이 지원했습니다.
+3. 경쟁률: 약 1.45대1로 비교적 낮은 편입니다.
+4. 최종 등록자 표에서의 성적:
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균: 271.64
+   - 영어 등급 평균: 5.06
+   - 수능 4개 영역 등급 평균: 5.78
+4.28이라는 점수는 이 표준점수보다 높으므로, 좋은 성적을 보여주고 있습니다.
+결론적으로:
+- 4.28의 성적은 충분히 경쟁력을 갖추고 있습니다.
+- 하지만 최종 합격 여부는 지원자들의 전체적인 평가 결과와 면접 등 다른 요인에 따라 결정됩니다.
+- 이전 년도의 입학사정관 평가 결과를 참고하면 더 정확한 판단이 가능할 것입니다.
+따라서, 4.28이라는 성적은 신소재공학과에 합격할 수 있는 기회는 충분히 있습니다만, 최종 결정은 입학전형의 전체적인 절차와 평가 결과에 따라 달라질 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.2450712082859675</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>一般的地来说，对于韩国的大学入学考试（수능），在申请一般学生类型时通常不需要提交个人陈述或自我介绍。但是，具体情况可能会根据各个专业的不同要求有所变化。
+1. **查看具体专业的要求**：首先，请确认你申请的专业是否需要额外的材料，如个人陈述、推荐信等。这些信息通常会在大学官网上的招生简章中详细说明。
+2. **参考往年信息**：如果可以的话，查阅过去几年该专业的录取要求和提交材料的信息，这可能会给你一些线索。
+3. **直接咨询学校**：如果你仍然不确定是否需要提交个人陈述，最安全的方法是直接联系目标学校的招生办公室进行确认。他们能够提供最准确、最新的信息。
+4. **准备充分的申请材料**：即使不需要个人陈述，确保你的其他申请材料（如成绩单、推荐信等）准备得非常完善也是非常重要的。
+总之，在不确定的情况下最好直接向学校咨询，以获取最准确的信息。希望这些信息对你有所帮助！</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>3.188635881309714e-06</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 표준점수는 상당히 높은 점수입니다. 하지만 추가모집에 합격할 확률을 결정하는 요소는 수 많은데, 다음과 같은 것들이 있습니다:
+1. 모집인원과 지원자 수: 추가모집에서도 여전히 경쟁이 치열합니다.
+2. 전형별 최저합격선: 각 전형별로 최저합격선이 설정되어 있으므로 이를 넘어야 합니다.
+3. 학교생활기록부와 면접 성적: 일부 전형에서는 이들 점수가 중요하게 작용할 수 있습니다.
+4. 실기나 특별전형 점수: 특정 전공이나 학과에서는 실기점수 등이 추가로 고려될 수 있습니다.
+5. 교과성적 평균: 일부 전형에서는 전체 교과 성적이 중요한 역할을 합니다.
+6. 지원자의 총합계 점수: 수능, 학교생활기록부, 면접 등 모든 요소를 종합적으로 평가합니다.
+따라서 4.5라는 점수만으로는 확답하기 어렵습니다. 동의대학교 입학 홈페이지나 전화로 상세한 정보를 확인하는 것이 가장 좋습니다. 또한, 추가모집에 대한 공지사항이나 최저합격선 등은 정시 모집과 달리 변경될 수 있으므로 실시간으로 확인해보세요.
+추가적으로, 동의대학교 입학 홈페이지(https://ipsi.deu.ac.kr/main.do)를 방문하여 가장 최신 정보와 안내를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.3820026399455161</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 신소재공학과나 관련 부서의 정시 모집 등급을 직접적으로 확인할 수 없습니다. 하지만 일반적으로 대학별, 학과별 모집단위의 경쟁률이나 최종합격者的:
+关于东义大学的新材料系在普通入学考试中的合格等级，提供的信息中并没有直接显示。但是，通常可以通过查看各大学和专业的录取率或最终合格者的信息来大致判断所需的等级。建议参考以下步骤：
+1. 查看学校官网发布的最新招生简章和往年数据。
+2. 关注新材料系的具体招生要求和历年分数线。
+3. 如果可能的话，咨询学校的招生办公室获取更准确的信息。
+由于具体信息未提供，以上是基于一般情况的建议。您可以访问东义大学官方网站或联系其招生办公室以获得最准确的数据。</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.07831062426422854</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 표준점수를 환산할 때, 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높게 나올 가능성은 있습니다. 하지만 이는 여러 요인에 따라 변동될 수 있으므로 확실한 것은 아닙니다.
+주요 고려사항:
+1. **모집 인원 및 지원자 수**: 작년 신소재공학과의 모집 인원이나 지원자 수가 달라졌다면, 경쟁률이 달라질 수 있습니다.
+2. **지원 동향**: 특정 학과에 대한 지원자가 늘어나거나 줄었을 경우, 평균 점수가 변동될 수 있습니다.
+3. **수능 성적 분포**: 작년의 수능 성적이 전체적으로 높아졌다면, 평균 점수가 상승할 가능성이 있습니다.
+4. **면접 및 서류 평가 결과**: 면접이나 서류 평가에서 우수한 학생들이 더 많이 선발되었다면, 최종 평균 점수가 높아질 수 있습니다.
+5. **학과 특성**: 신소재공학과의 경우, 특정 전공적합성이 요구되므로, 이에 대한 평가 결과도 영향을 미칠 수 있습니다.
+따라서 작년의 최종 평균 점수가 447점보다 약간 높아질 가능성은 있지만, 정확한 예측은 어렵습니다. 가장 확실한 방법은 동의대학교 입학처 웹사이트나 공식 안내 자료를 확인하거나, 직접 입학처에 문의하는 것입니다.
+추가적으로, 동의대학교의 입학 전형 관련 정보는 종종 변경되므로, 최신 정보를 확인하기 위해 공식 홈페이지를 참조하시거나, 입학처와 연락을 취하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.04379428461780163</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3등급대의 성적이면 신소재공학과(56명 모집)의 경쟁률이 매우 높을 것으로 예상됩니다. 이 과정에서 몇 가지 고려사항이 있습니다:
+1. **경쟁률**: 신소재공학과는 많은 지원자가 있을 가능성이 큽니다. 4.3등급대는 평균적인 성적일 수 있지만, 경쟁률이 높아서 이보다 낮은 등급도 충원될 수 있습니다.
+2. **모집인원**: 신소재공학과는 56명을 모집하므로 많은 학생들이 지원할 것입니다. 
+3. **성적 평균 및 표준편차**: 성적의 평균이 높고 표준편차가 작다면, 4.1~4.2등급은 상대적으로 낮게 보일 수 있습니다.
+4. **전형요소**: 서류평가와 면접 등 다른 전형요소도 중요합니다. 성적 외에 지원동기, 학업역량, 전공적합성 등을 잘 준비한다면 도움이 될 수 있습니다.
+5. **모집인원 초과 시 처리방법**: 모집인원을 초과할 경우 동점자 처리 기준에 따라 결정되므로, 면접 성적이 중요하게 작용할 수 있습니다.
+결론적으로 4.3등급대의 성적만으로는 확실한 합격을 보장하기 어렵습니다. 하지만 성적 외 전형요소를 잘 준비하고, 지원동기가 명확하며, 학업역량과 전공적합성이 뛰어나다면 충원될 가능성이 있습니다.
+추가적으로:
+- **면접 준비**: 면접에서 자신감 있게 자신의 장점을 강조하고, 지원 동기를 명확히 설명하는 것이 중요합니다.
+- **서류 준비**: 서류평가에서도 성적 외의 부분을 잘 보여주는 것이 필요합니다. 
+- **모집인원 확인**: 정시 모집인원과 충원 인원까지 모두 확인해보세요.
+이런 점들을 고려하여 최선을 다하는 것이 중요할 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.2061333892221039</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능 일반학생전형에 대한 최종등록자의 성적을 확인해보겠습니다.
+인공지능학과는 다음과 같은 성적을 보여주고 있습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 403.85
+- 영어 등급: 4.53
+- 수능 4개 영역 등급: 5.25
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 415.80
+이 성적은 최종등록자 중 인공지능학과에 지원한 사람들의 평균 성적입니다.
+참고로, 이는 2024년의 데이터이며, 실제 수시 모집 시점에서는 이전 연도의 성적이 적용될 수 있습니다. 또한, 각 학과별 모집인원과 지원 인원이 달라서 경쟁률이 다르므로, 해당 정보를 참고하시되 최종적인 입학 가능 여부는 정확한 모집요강과 개인의 성적을 확인해보시기 바랍니다.
+더 자세한 정보나 추가 질문이 있으시다면 알려주세요!</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.4446576275749236</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수는 명확한 문맥이 없어 이해하기 어렵습니다. 일반적으로 수능 성적은 국어, 수학(과목별), 영어 등급을 포함하여 합산됩니다.
+만약 5.27이 수능의 특정 과목 점수나 등급이라면, 다음과 같이 판단해볼 수 있습니다:
+1. **국어**: 100점 만점 중 52.7점
+2. **수학(과목별)**: 80점 만점 중 42.1점 (약 5등급)
+3. **영어**: 등급으로 표기되어 있음
+이 점수로는 대부분의 전형에서 낮은 성적을 받을 가능성이 높습니다. 특히, 수능 위주 전형이나 실기/실적 위주의 전형에서는 낮은 점수가 불리할 수 있습니다.
+하지만, 다음과 같은 요소들이 고려되면 다른 전형에 도전해볼 만한 가치가 있을 수 있습니다:
+1. **학생부 성적**: 국어, 수학, 영어 등 과목별 성적이 높다면 이점이 있습니다.
+2. **면접 및 서류 평가**: 면접이나 서류 평가에서 좋은 점수를 받을 경우 합격 가능성은 높아질 수 있습니다.
+3. **특성화 전형**: 일부 특성화 전형에서는 성적 외 요소들이 중요하게 작용할 수 있습니다.
+추천되는 전형들은 다음과 같습니다:
+- **학생부종합(평생학습자전형, 성인학습자전형, 재직자전형)**: 이들 전형은 학생부와 면접이 주요 평가 요소로 작용합니다.
+- **조기취업형계약학과전형**: 서류평가와 면접에서 좋은 점수를 받을 경우 가능성이 있습니다.
+추천되지 않는 전형들은:
+- **수능 위주 전형 (가군, 나군, 다군 수능 일반학생전형)**
+- **실기/실적 위주의 전형**
+최종 결정을 내리기 위해서는 동의대학교 입학 홈페이지나 학교 관계자에게 직접 문의하는 것이 가장 좋습니다. 해당 대학의 정시 모집요강과 각 전형의 세부 평가 기준을 꼼꼼히 확인하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.1061998467411603</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 중간적인 수준입니다. 하지만 소프트웨어공학부에 지원할 때 다음과 같은 요소들을 고려해야 합니다:
+1. **전형 유형**: 소프트웨어공학부의 경우, 일반적으로 실기/실적 위주나 학생부종합 전형을 많이 사용합니다.
+2. **성적 평균**: 4.2는 중간 수준이므로, 다른 지원자들과 비교해보면 상대적으로 낮은 점수일 수 있습니다.
+3. **학생부 성적**: 교과 성적이 4.2라면, 학생부에서 좋은 성적을 보여주어야 합니다. 특히 소프트웨어공학과와 관련된 과목들(수학, 영어 등)에서 높은 점수를 받았다면 이점이 있습니다.
+4. **면접 및 실기**: 면접이나 실기 평가에서도 좋은 성적을 받아야 합니다. 특히 소프트웨어공학과는 프로그래밍 능력 등을 평가하기 때문에 실기 부분에서 뛰어난 성적을 받는 것이 중요합니다.
+5. **추천서 및 자기소개서**: 추천서와 자기소개서에서도 자신의 강점과 열정을 잘 표현해야 합니다.
+6. **경험 및 활동**: 관련 프로젝트나 경험이 있다면 이점을 잘 활용할 수 있습니다.
+따라서, 4.2의 성적만으로는 확실한 합격을 보장하기 어렵지만, 다른 요소들을 잘 준비하고 활용한다면 소프트웨어공학부에 지원하는 것은 가능합니다. 특히 면접과 실기 부분에서 뛰어난 성적을 받고, 자기소개서와 추천서에서도 자신의 강점을 잘 표현한다면 좋은 결과를 얻을 수 있습니다.
+추가적으로, 동의대학교의 정시 모집요강이나 전형요소 반영비율 등을 확인하여 자세한 정보를 얻는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.0297195719071549</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>为了判断您是否符合化学环境工程学部的普通学生招生条件，我们需要考虑以下几个因素：
+1. **成绩要求**：根据提供的信息，化学环境工程学部（包括化学工程、环境工程和应用化学）的一般学生招生的成绩要求是：
+   - 国语 + 数学 + 两门选修科目的标准转换分数总和 { 平均 / 标准差 } = 316.61 / 20.76
+   - 英语等级 { 平均 / 标准差 } = 4.70 / 1.00
+   - 四门考试科目的标准转换分数总和 { 平均 / 标准差 } = 385.99 / 23.23
+2. **您的成绩**：您提到的成绩是3.92，这个成绩看起来是在英语等级部分。
+3. **综合考虑**：
+   - 您的英语等级为3.92，在平均值4.70左右，标准差1.00的情况下，这应该是一个不错的成绩。
+   - 但是，您的总分需要达到化学环境工程学部的要求。您提供的信息中没有具体的国语、数学和两门选修科目的具体分数。
+为了更准确地判断是否符合要求，请提供以下详细信息：
+- 国语的具体分数
+- 数学的具体分数
+- 两门选修科目的具体分数
+有了这些信息，我们可以计算出您的总分，并与化学环境工程学部的要求进行比较。如果您的总分达到了316.61的标准转换分数总和，则有可能符合该专业的招生要求。
+建议您根据提供的成绩详细信息重新计算总分，或者直接咨询东国大学的招生办公室以获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.01552971763164575</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부에 대해, 수능 일반학생전형으로 지원이 가능한지 확인해보겠습니다.
+1. **화학환경공학부 모집단위**: 화학공학과, 환경공학과, 응용화학과
+2. **수능 일반학생전형의 전형요소**:
+   - 국어(화법과작문 또는 언어와매체) 25%
+   - 수학(확률과통계 또는 미적분 또는 기하) 25%
+   - 영어 25%
+   - 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%
+3. **성적 산출 예시**:
+   - 국어: 표준점수
+   - 수학: 표준점수 + 가산점 (만약 미적분이나 기하 응시자)
+   - 영어: 등급 점수
+   - 탐구: 2개 과목의 표준점수 합
+4. **성적 산출 예시**:
+   ``` 
+   { 104 /  108 /  4등급 /  47 /  59 / }
+   ```
+   - 국어: 104
+   - 수학: 108 (가산점 포함)
+   - 영어: 4등급 (대략 123 점)
+   - 탐구: 47 + 59 = 106
+5. **성적 반영방법**:
+   - 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+   - 가산점은 수학(미적분 또는 기하) 응시자에만 적용됩니다.
+6. **성적 평균**: 4.25 (이 점수는 대략적인 예시이며, 실제 성적이 필요합니다.)
+7. **가산점**:
+   - 만약 수학 미적분이나 기하를 응시했다면 가산점을 받을 수 있습니다.
+8. **결론**:
+   - 4.25의 성적은 평균적으로 좋은 점수입니다.
+   - 수능 성적이 4.25라면, 이는 대체로 합격 가능성을 높입니다.
+   - 하지만 최종 결정은 실제 성적과 가산점 여부에 따라 달라질 수 있습니다.
+따라서, 4.25의 성적을 가지고 화학환경공학부에 지원한다면, 일반적으로는 가능할 것으로 보이지만, 정확한 합격 가능성은 실제 성적이 결정하는 중요한 요소입니다. 
+추가적으로, 수능 성적 확인 및 가산점 여부를 다시 한 번 확인하시고, 필요하다면 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.04428890913476645</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 일반적으로 좋은 성적입니다만, 실제 합격 가능성은 여러 요소에 따라 달라집니다:
+1. 영화학과의 모집인원과 지원자 수: 이 정보가 있다면 그 비율을 확인해야 합니다.
+2. 해당 전형의 전형요소 반영비율: 일반적으로 수능성적이 큰 비중을 차지합니다.
+3. 학생부 교과 성적: 영화학과는 종종 창의성이나 표현력이 중요하므로, 이 부분도 고려해야 합니다.
+4. 면접 결과: 많은 경우 면접에서 지원자의 창의성과 열정 등을 평가합니다.
+5. 학교생활기록부 내용: 창의적 체험활동 등이 반영될 수 있습니다.
+6. 경쟁률: 최근 몇 년간의 경쟁률을 확인하여 대략적인 위치를 파악해야 합니다.
+7. 전형요소별 점수: 수능, 학생부 교과, 면접 등의 각 요소별로 어느 정도 점수가 필요한지 확인해야 합니다.
+이러한 정보들을 종합적으로 고려하면 더 정확한 판단을 할 수 있을 것입니다. 만약 구체적인 정보가 있다면 해당 내용을 참고하여 답변을 수정할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.1628344859829598</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인 
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+주요 점은:
+- 개별면접 형식으로 진행됩니다.
+- 평균 10분 이내로 이루어집니다.
+- 블라인드 면접 방식으로 개인 정보 노출을 금지합니다.
+- 교복 착용도 금지되어 있습니다.
+지원자들은 면접위원들이 수험생의 답변 내용을 바탕으로 정성적이고 종합적으로 평가하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.3454038975871253</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.3441347857606744</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.2395826815168583</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.178990978580874</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.2918587336387664</v>
+      <c r="D305" t="n">
+        <v>0.2542361486194689</v>
       </c>
     </row>
   </sheetData>
